--- a/5 - TJMData/interTJM.xlsx
+++ b/5 - TJMData/interTJM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="150">
   <si>
     <t>tfnum</t>
   </si>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1424,25 +1424,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0.16943</v>
+        <v>-0.31148</v>
       </c>
       <c r="D24">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H24" t="s">
         <v>123</v>
@@ -1450,51 +1450,51 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>-0.31148</v>
+        <v>-0.33336</v>
       </c>
       <c r="D25">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>-0.33336</v>
+        <v>0.12497</v>
       </c>
       <c r="D26">
         <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
         <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
@@ -1502,25 +1502,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.12497</v>
+        <v>0.2753</v>
       </c>
       <c r="D27">
         <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
@@ -1528,51 +1528,51 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>0.14945</v>
+      </c>
+      <c r="D28">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>0.2753</v>
-      </c>
-      <c r="D28">
-        <v>131</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>0.14945</v>
+        <v>-0.20478</v>
       </c>
       <c r="D29">
         <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
         <v>128</v>
@@ -1580,51 +1580,51 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>-0.20478</v>
+        <v>-0.44247</v>
       </c>
       <c r="D30">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.44247</v>
+        <v>0.41655</v>
       </c>
       <c r="D31">
         <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
         <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
         <v>129</v>
@@ -1632,51 +1632,51 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.41655</v>
+        <v>-0.08294</v>
       </c>
       <c r="D32">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>-0.08294</v>
+        <v>0.33115</v>
       </c>
       <c r="D33">
         <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
@@ -1684,25 +1684,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>0.33115</v>
+        <v>0.16889</v>
       </c>
       <c r="D34">
         <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1710,51 +1710,51 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35">
-        <v>0.16889</v>
+        <v>-0.11331</v>
       </c>
       <c r="D35">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>-0.11331</v>
+        <v>0.26304</v>
       </c>
       <c r="D36">
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H36" t="s">
         <v>45</v>
@@ -1762,51 +1762,51 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>0.26304</v>
+        <v>0.05658</v>
       </c>
       <c r="D37">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C38">
-        <v>0.05658</v>
+        <v>-0.16728</v>
       </c>
       <c r="D38">
         <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" t="s">
         <v>46</v>
@@ -1814,51 +1814,51 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>-0.16728</v>
+        <v>-0.2266</v>
       </c>
       <c r="D39">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>-0.2266</v>
+        <v>0.62464</v>
       </c>
       <c r="D40">
         <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H40" t="s">
         <v>47</v>
@@ -1866,51 +1866,51 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>0.62464</v>
+        <v>0.21116</v>
       </c>
       <c r="D41">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>0.21116</v>
+        <v>0.10272</v>
       </c>
       <c r="D42">
         <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
         <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
         <v>48</v>
@@ -1918,25 +1918,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>0.10272</v>
+        <v>-0.30386</v>
       </c>
       <c r="D43">
         <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>48</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H43" t="s">
         <v>48</v>
@@ -1944,51 +1944,51 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C44">
-        <v>-0.30386</v>
+        <v>-0.10221</v>
       </c>
       <c r="D44">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>-0.10221</v>
+        <v>0.24263</v>
       </c>
       <c r="D45">
         <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
         <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
         <v>49</v>
@@ -1996,51 +1996,51 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>0.24263</v>
+        <v>0.24853</v>
       </c>
       <c r="D46">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>0.24853</v>
+        <v>-0.32931</v>
       </c>
       <c r="D47">
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
         <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
         <v>130</v>
@@ -2048,51 +2048,51 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>-0.32931</v>
+        <v>0.02706</v>
       </c>
       <c r="D48">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>0.02706</v>
+        <v>0.48201</v>
       </c>
       <c r="D49">
         <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
         <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H49" t="s">
         <v>51</v>
@@ -2100,597 +2100,597 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>0.48201</v>
+        <v>-0.21662</v>
       </c>
       <c r="D50">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>-0.21662</v>
+        <v>0.33323</v>
       </c>
       <c r="D51">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0.48779</v>
+        <v>-0.18105</v>
       </c>
       <c r="D52">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53">
-        <v>0.33323</v>
+        <v>0.33191</v>
       </c>
       <c r="D53">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
         <v>122</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>-0.18105</v>
+        <v>-0.55367</v>
       </c>
       <c r="D54">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55">
-        <v>0.33191</v>
+        <v>-0.32317</v>
       </c>
       <c r="D55">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
         <v>122</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0.45845</v>
+      </c>
+      <c r="D56">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>-0.55367</v>
-      </c>
-      <c r="D56">
-        <v>145</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>53</v>
-      </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>0.35169</v>
+      </c>
+      <c r="D57">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>-0.32317</v>
-      </c>
-      <c r="D57">
-        <v>146</v>
-      </c>
-      <c r="E57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" t="s">
-        <v>54</v>
-      </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0.45845</v>
+        <v>0.25356</v>
       </c>
       <c r="D58">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>0.514</v>
+      </c>
+      <c r="D59">
+        <v>149</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
-        <v>0.35169</v>
-      </c>
-      <c r="D59">
-        <v>147</v>
-      </c>
-      <c r="E59" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0.27384</v>
+      </c>
+      <c r="D60">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>0.25356</v>
-      </c>
-      <c r="D60">
-        <v>148</v>
-      </c>
-      <c r="E60" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" t="s">
-        <v>56</v>
-      </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>0.514</v>
+        <v>0.16523</v>
       </c>
       <c r="D61">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>0.27384</v>
+        <v>-0.3467</v>
       </c>
       <c r="D62">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C63">
-        <v>0.16523</v>
+        <v>0.28858</v>
       </c>
       <c r="D63">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>-0.3467</v>
+        <v>-0.07847999999999999</v>
       </c>
       <c r="D64">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C65">
-        <v>0.28858</v>
+        <v>-0.35666</v>
       </c>
       <c r="D65">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>-0.07847999999999999</v>
+        <v>-0.55298</v>
       </c>
       <c r="D66">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G66" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C67">
-        <v>-0.35666</v>
+        <v>0.29906</v>
       </c>
       <c r="D67">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G67" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H67" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>-0.55298</v>
+        <v>-0.08513</v>
       </c>
       <c r="D68">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="H68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>0.29906</v>
+        <v>0.26563</v>
       </c>
       <c r="D69">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="H69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>-0.08513</v>
+        <v>0.28233</v>
       </c>
       <c r="D70">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.26563</v>
+        <v>0.31651</v>
       </c>
       <c r="D71">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G71" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.28233</v>
+        <v>-0.37031</v>
       </c>
       <c r="D72">
         <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
         <v>64</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H72" t="s">
         <v>64</v>
@@ -2698,441 +2698,441 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>0.31651</v>
+        <v>0.27024</v>
       </c>
       <c r="D73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>-0.37031</v>
+        <v>-0.42814</v>
       </c>
       <c r="D74">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G74" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.27024</v>
+        <v>-0.17177</v>
       </c>
       <c r="D75">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>-0.42814</v>
+        <v>0.50129</v>
       </c>
       <c r="D76">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="H76" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>-0.17177</v>
+        <v>-0.6131</v>
       </c>
       <c r="D77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <v>0.50129</v>
+        <v>0.52238</v>
       </c>
       <c r="D78">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G78" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>-0.6131</v>
+        <v>-0.20266</v>
       </c>
       <c r="D79">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.52238</v>
+        <v>0.05599</v>
       </c>
       <c r="D80">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>-0.20266</v>
+        <v>0.32985</v>
       </c>
       <c r="D81">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G81" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>0.05599</v>
+        <v>0.32573</v>
       </c>
       <c r="D82">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83">
-        <v>0.32985</v>
+        <v>-0.36684</v>
       </c>
       <c r="D83">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>0.32573</v>
+        <v>0.18337</v>
       </c>
       <c r="D84">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85">
-        <v>-0.36684</v>
+        <v>0.26928</v>
       </c>
       <c r="D85">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>0.18337</v>
+        <v>-0.14227</v>
       </c>
       <c r="D86">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="H86" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
       </c>
       <c r="C87">
-        <v>0.26928</v>
+        <v>0.28595</v>
       </c>
       <c r="D87">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
         <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s">
         <v>24</v>
       </c>
       <c r="H87" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>-0.14227</v>
+        <v>-0.11981</v>
       </c>
       <c r="D88">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G88" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>0.28595</v>
+        <v>-0.798</v>
       </c>
       <c r="D89">
         <v>169</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
         <v>75</v>
       </c>
       <c r="G89" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H89" t="s">
         <v>75</v>
@@ -3140,77 +3140,77 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>-0.11981</v>
+        <v>-1.29862</v>
       </c>
       <c r="D90">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>-0.798</v>
+        <v>1.78591</v>
       </c>
       <c r="D91">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E91" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C92">
-        <v>-1.29862</v>
+        <v>0.18306</v>
       </c>
       <c r="D92">
         <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F92" t="s">
         <v>76</v>
       </c>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H92" t="s">
         <v>76</v>
@@ -3218,103 +3218,103 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C93">
-        <v>1.78591</v>
+        <v>-0.63702</v>
       </c>
       <c r="D93">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E93" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.18306</v>
+        <v>0.43344</v>
       </c>
       <c r="D94">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95">
-        <v>-0.63702</v>
+        <v>0.31086</v>
       </c>
       <c r="D95">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E95" t="s">
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.43344</v>
+        <v>-0.76869</v>
       </c>
       <c r="D96">
         <v>172</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F96" t="s">
         <v>78</v>
       </c>
       <c r="G96" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H96" t="s">
         <v>136</v>
@@ -3322,415 +3322,415 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97">
-        <v>0.31086</v>
+        <v>-0.60038</v>
       </c>
       <c r="D97">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E97" t="s">
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>-0.76869</v>
+        <v>-0.27927</v>
       </c>
       <c r="D98">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>-0.60038</v>
+        <v>-0.21556</v>
       </c>
       <c r="D99">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H99" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>-0.27927</v>
+        <v>0.43863</v>
       </c>
       <c r="D100">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>-0.21556</v>
+        <v>-0.22396</v>
       </c>
       <c r="D101">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102">
-        <v>0.43863</v>
+        <v>0.36141</v>
       </c>
       <c r="D102">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C103">
-        <v>-0.22396</v>
+        <v>-0.6215000000000001</v>
       </c>
       <c r="D103">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104">
-        <v>0.36141</v>
+        <v>0.4899</v>
       </c>
       <c r="D104">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G104" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
       <c r="C105">
-        <v>-0.6215000000000001</v>
+        <v>-0.9292</v>
       </c>
       <c r="D105">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E105" t="s">
         <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G105" t="s">
         <v>122</v>
       </c>
       <c r="H105" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106">
-        <v>0.4899</v>
+        <v>0.75332</v>
       </c>
       <c r="D106">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
       </c>
       <c r="C107">
-        <v>-0.9292</v>
+        <v>-0.71892</v>
       </c>
       <c r="D107">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
         <v>22</v>
       </c>
       <c r="F107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G107" t="s">
         <v>122</v>
       </c>
       <c r="H107" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108">
-        <v>0.75332</v>
+        <v>0.60137</v>
       </c>
       <c r="D108">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s">
         <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C109">
-        <v>-0.71892</v>
+        <v>-0.30625</v>
       </c>
       <c r="D109">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>0.60137</v>
+        <v>0.30472</v>
       </c>
       <c r="D110">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E110" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G110" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="H110" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C111">
-        <v>-0.30625</v>
+        <v>-0.28622</v>
       </c>
       <c r="D111">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>0.30472</v>
+        <v>0.21628</v>
       </c>
       <c r="D112">
         <v>181</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H112" t="s">
         <v>87</v>
@@ -3738,103 +3738,103 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C113">
-        <v>-0.28622</v>
+        <v>0.27497</v>
       </c>
       <c r="D113">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C114">
-        <v>0.21628</v>
+        <v>-0.33499</v>
       </c>
       <c r="D114">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G114" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H114" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>0.27497</v>
+        <v>0.20993</v>
       </c>
       <c r="D115">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>-0.33499</v>
+        <v>-0.08531999999999999</v>
       </c>
       <c r="D116">
         <v>185</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
         <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
         <v>89</v>
@@ -3842,337 +3842,337 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C117">
-        <v>0.20993</v>
+        <v>-0.44205</v>
       </c>
       <c r="D117">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H117" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>-0.08531999999999999</v>
+        <v>0.39017</v>
       </c>
       <c r="D118">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H118" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>-0.44205</v>
+        <v>-0.34607</v>
       </c>
       <c r="D119">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G119" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>0.39017</v>
+        <v>0.15361</v>
       </c>
       <c r="D120">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>-0.34607</v>
+        <v>-0.48916</v>
       </c>
       <c r="D121">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E121" t="s">
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C122">
-        <v>0.15361</v>
+        <v>0.23246</v>
       </c>
       <c r="D122">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G122" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
       <c r="C123">
-        <v>-0.48916</v>
+        <v>-0.58007</v>
       </c>
       <c r="D123">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G123" t="s">
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>0.23246</v>
+        <v>-0.26273</v>
       </c>
       <c r="D124">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <v>0.10251</v>
+      </c>
+      <c r="D125">
+        <v>191</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" t="s">
+        <v>95</v>
+      </c>
+      <c r="G125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125">
-        <v>-0.58007</v>
-      </c>
-      <c r="D125">
-        <v>189</v>
-      </c>
-      <c r="E125" t="s">
-        <v>20</v>
-      </c>
-      <c r="F125" t="s">
-        <v>93</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
       <c r="H125" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>-0.26273</v>
+        <v>-0.21166</v>
       </c>
       <c r="D126">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E126" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C127">
-        <v>0.10251</v>
+        <v>-0.17407</v>
       </c>
       <c r="D127">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G127" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C128">
-        <v>-0.21166</v>
+        <v>0.41327</v>
       </c>
       <c r="D128">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G128" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="H128" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>-0.17407</v>
+        <v>0.32052</v>
       </c>
       <c r="D129">
         <v>192</v>
       </c>
       <c r="E129" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>96</v>
       </c>
       <c r="G129" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H129" t="s">
         <v>96</v>
@@ -4180,77 +4180,77 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C130">
-        <v>0.41327</v>
+        <v>0.10641</v>
       </c>
       <c r="D130">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F130" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C131">
-        <v>0.32052</v>
+        <v>-0.067</v>
       </c>
       <c r="D131">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G131" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H131" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C132">
-        <v>0.10641</v>
+        <v>0.54975</v>
       </c>
       <c r="D132">
         <v>193</v>
       </c>
       <c r="E132" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F132" t="s">
         <v>97</v>
       </c>
       <c r="G132" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H132" t="s">
         <v>142</v>
@@ -4258,937 +4258,859 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C133">
-        <v>-0.067</v>
+        <v>0.54631</v>
       </c>
       <c r="D133">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F133" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G133" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H133" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134">
-        <v>0.54975</v>
+        <v>-0.29681</v>
       </c>
       <c r="D134">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G134" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>0.54631</v>
+        <v>0.11268</v>
       </c>
       <c r="D135">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F135" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G135" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H135" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C136">
-        <v>-0.29681</v>
+        <v>0.45911</v>
       </c>
       <c r="D136">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E136" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C137">
-        <v>0.11268</v>
+        <v>0.317</v>
       </c>
       <c r="D137">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E137" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H137" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C138">
-        <v>0.45911</v>
+        <v>-0.06623</v>
       </c>
       <c r="D138">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G138" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C139">
-        <v>0.317</v>
+        <v>0.22246</v>
       </c>
       <c r="D139">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G139" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="H139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C140">
-        <v>-0.06623</v>
+        <v>-0.19142</v>
       </c>
       <c r="D140">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G140" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="H140" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.22246</v>
+        <v>0.26883</v>
       </c>
       <c r="D141">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G141" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>-0.19142</v>
+        <v>-0.38369</v>
       </c>
       <c r="D142">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E142" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F142" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H142" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C143">
-        <v>0.26883</v>
+        <v>-0.08358</v>
       </c>
       <c r="D143">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F143" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G143" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H143" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144">
-        <v>-0.38369</v>
+        <v>0.41242</v>
       </c>
       <c r="D144">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E144" t="s">
         <v>18</v>
       </c>
       <c r="F144" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G144" t="s">
         <v>120</v>
       </c>
       <c r="H144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>-0.08358</v>
+        <v>-0.39113</v>
       </c>
       <c r="D145">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G145" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H145" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C146">
-        <v>0.41242</v>
+        <v>0.29824</v>
       </c>
       <c r="D146">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G146" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="H146" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C147">
-        <v>-0.39113</v>
+        <v>-0.23997</v>
       </c>
       <c r="D147">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G147" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="H147" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>0.29824</v>
+        <v>-0.28941</v>
       </c>
       <c r="D148">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F148" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H148" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149">
-        <v>-0.23997</v>
+        <v>0.1214</v>
       </c>
       <c r="D149">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
       <c r="F149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G149" t="s">
         <v>120</v>
       </c>
       <c r="H149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C150">
-        <v>-0.28941</v>
+        <v>-0.40736</v>
       </c>
       <c r="D150">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G150" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="H150" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C151">
-        <v>0.09592000000000001</v>
+        <v>-0.31863</v>
       </c>
       <c r="D151">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G151" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H151" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
       </c>
       <c r="C152">
-        <v>0.1214</v>
+        <v>0.61694</v>
       </c>
       <c r="D152">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E152" t="s">
         <v>18</v>
       </c>
       <c r="F152" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G152" t="s">
         <v>120</v>
       </c>
       <c r="H152" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C153">
-        <v>-0.40736</v>
+        <v>0.20534</v>
       </c>
       <c r="D153">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E153" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F153" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H153" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C154">
-        <v>-0.31863</v>
+        <v>-0.04493</v>
       </c>
       <c r="D154">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G154" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="H154" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C155">
-        <v>0.61694</v>
+        <v>0.33448</v>
       </c>
       <c r="D155">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G155" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H155" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
       </c>
       <c r="C156">
-        <v>0.20534</v>
+        <v>-0.40236</v>
       </c>
       <c r="D156">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
       </c>
       <c r="F156" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G156" t="s">
         <v>120</v>
       </c>
       <c r="H156" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C157">
-        <v>-0.04493</v>
+        <v>-0.30328</v>
       </c>
       <c r="D157">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H157" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158">
-        <v>0.33448</v>
+        <v>0.23973</v>
       </c>
       <c r="D158">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E158" t="s">
         <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G158" t="s">
         <v>122</v>
       </c>
       <c r="H158" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>-0.40236</v>
+        <v>0.23836</v>
       </c>
       <c r="D159">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F159" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G159" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="H159" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160">
-        <v>-0.30328</v>
+        <v>0.33928</v>
       </c>
       <c r="D160">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E160" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G160" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C161">
-        <v>0.23973</v>
+        <v>0.15584</v>
       </c>
       <c r="D161">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H161" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C162">
-        <v>0.23836</v>
+        <v>0.08986</v>
       </c>
       <c r="D162">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E162" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F162" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G162" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H162" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C163">
-        <v>0.33928</v>
+        <v>0.58494</v>
       </c>
       <c r="D163">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E163" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F163" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G163" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="H163" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C164">
-        <v>0.15584</v>
+        <v>0.1062</v>
       </c>
       <c r="D164">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E164" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F164" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G164" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.08986</v>
+        <v>-0.23621</v>
       </c>
       <c r="D165">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E165" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F165" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G165" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="H165" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166">
-        <v>0.58494</v>
-      </c>
-      <c r="D166">
-        <v>217</v>
-      </c>
-      <c r="E166" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" t="s">
-        <v>117</v>
-      </c>
-      <c r="G166" t="s">
-        <v>120</v>
-      </c>
-      <c r="H166" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>14</v>
-      </c>
-      <c r="C167">
-        <v>0.1062</v>
-      </c>
-      <c r="D167">
-        <v>220</v>
-      </c>
-      <c r="E167" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" t="s">
-        <v>118</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
-      <c r="H167" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168">
-        <v>-0.23621</v>
-      </c>
-      <c r="D168">
-        <v>221</v>
-      </c>
-      <c r="E168" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" t="s">
-        <v>119</v>
-      </c>
-      <c r="G168" t="s">
-        <v>120</v>
-      </c>
-      <c r="H168" t="s">
         <v>119</v>
       </c>
     </row>
